--- a/Supplier Email List.xlsx
+++ b/Supplier Email List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -49,13 +49,19 @@
   </si>
   <si>
     <t>cpalmer@kochcontainer.com</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>sales@tcmfcorp.com </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +97,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,9 +123,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -125,7 +140,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -456,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -469,54 +485,89 @@
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -525,13 +576,15 @@
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Supplier Email List.xlsx
+++ b/Supplier Email List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -55,13 +55,16 @@
   </si>
   <si>
     <t>sales@tcmfcorp.com </t>
+  </si>
+  <si>
+    <t>Confirmed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +108,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,12 +132,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -139,9 +149,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -472,25 +486,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -498,7 +513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -506,15 +521,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -522,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -530,31 +548,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -562,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>

--- a/Supplier Email List.xlsx
+++ b/Supplier Email List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -519,6 +519,9 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/Supplier Email List.xlsx
+++ b/Supplier Email List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Resent</t>
   </si>
 </sst>
 </file>
@@ -132,9 +135,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -153,9 +158,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -489,7 +496,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -512,6 +519,9 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
@@ -540,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -548,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -597,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Supplier Email List.xlsx
+++ b/Supplier Email List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -514,7 +514,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -525,18 +525,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -547,23 +547,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -574,24 +580,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -612,16 +612,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="A10" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
-    <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId8"/>
+    <hyperlink ref="A7" r:id="rId9"/>
+    <hyperlink ref="A2" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Supplier Email List.xlsx
+++ b/Supplier Email List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Resent</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>atompkins@tompkinsmetalfinishing.com</t>
+  </si>
+  <si>
+    <t>CPalmer@bcipkg.com</t>
+  </si>
+  <si>
+    <t>Replaced with atompkins@tompkinsmetalfinishing.com</t>
+  </si>
+  <si>
+    <t>Replaced with CPalmer@bcipkg.com</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
   </si>
 </sst>
 </file>
@@ -143,7 +161,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,6 +173,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,17 +514,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -585,6 +606,9 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
@@ -593,6 +617,9 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
@@ -601,6 +628,9 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
@@ -608,6 +638,25 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -622,6 +671,8 @@
     <hyperlink ref="A11" r:id="rId8"/>
     <hyperlink ref="A7" r:id="rId9"/>
     <hyperlink ref="A2" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Supplier Email List.xlsx
+++ b/Supplier Email List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,9 +173,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,7 +649,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">

--- a/Supplier Email List.xlsx
+++ b/Supplier Email List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Replaced with CPalmer@bcipkg.com</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
   </si>
 </sst>
 </file>
@@ -514,7 +511,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -637,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/Supplier Email List.xlsx
+++ b/Supplier Email List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="10320" yWindow="8000" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +170,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,7 +514,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -642,7 +645,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>42018</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -650,7 +656,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>42018</v>
       </c>
     </row>
   </sheetData>
